--- a/data/dividends_info_20260211.xlsx
+++ b/data/dividends_info_20260211.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22.11000061035156</v>
+        <v>20.11000061035156</v>
       </c>
       <c r="I2" t="n">
-        <v>3.573043772916651</v>
+        <v>3.928393714684175</v>
       </c>
       <c r="J2" t="n">
         <v>96</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6.047999858856201</v>
+        <v>5.888999938964844</v>
       </c>
       <c r="I3" t="n">
-        <v>3.141534464849224</v>
+        <v>3.226354253170494</v>
       </c>
       <c r="J3" t="n">
         <v>96</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.914999961853027</v>
+        <v>6.875</v>
       </c>
       <c r="I5" t="n">
-        <v>7.230658029765396</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="J5" t="n">
         <v>68</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.65999984741211</v>
+        <v>12.42500019073486</v>
       </c>
       <c r="I6" t="n">
-        <v>4.265402895011756</v>
+        <v>4.346076392036355</v>
       </c>
       <c r="J6" t="n">
         <v>68</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>25.39999961853027</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="I7" t="n">
-        <v>5.354330789075398</v>
+        <v>5.312499920837583</v>
       </c>
       <c r="J7" t="n">
         <v>68</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18.95000076293945</v>
+        <v>18.30500030517578</v>
       </c>
       <c r="I8" t="n">
-        <v>3.324538124727108</v>
+        <v>3.441682543003652</v>
       </c>
       <c r="J8" t="n">
         <v>68</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>28.06999969482422</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3206270074046169</v>
+        <v>0.3115264863323184</v>
       </c>
       <c r="J9" t="n">
         <v>40</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>58</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="I10" t="n">
-        <v>1.120689655172414</v>
+        <v>1.212686601686808</v>
       </c>
       <c r="J10" t="n">
         <v>12</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.769999980926514</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="I11" t="n">
-        <v>3.389830545003326</v>
+        <v>3.333333421636513</v>
       </c>
       <c r="J11" t="n">
         <v>-2</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.2060000002384186</v>
+        <v>0.1979999989271164</v>
       </c>
       <c r="I12" t="n">
-        <v>29.12621355852315</v>
+        <v>30.30303046723042</v>
       </c>
       <c r="J12" t="n">
         <v>-9</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.585000038146973</v>
+        <v>9.75100040435791</v>
       </c>
       <c r="I13" t="n">
-        <v>2.399582671722815</v>
+        <v>2.358732339885952</v>
       </c>
       <c r="J13" t="n">
         <v>-23</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.973999977111816</v>
+        <v>6.105999946594238</v>
       </c>
       <c r="I14" t="n">
-        <v>2.022095755989638</v>
+        <v>1.978381936727316</v>
       </c>
       <c r="J14" t="n">
         <v>-23</v>
@@ -2962,7 +2962,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2979,7 +2979,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2989,14 +2989,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3030,7 +3030,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3047,7 +3047,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3057,14 +3057,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3149,7 +3149,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3159,14 +3159,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3183,7 +3183,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3217,7 +3217,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3227,14 +3227,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3244,14 +3244,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3302,7 +3302,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3421,7 +3421,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3448,14 +3448,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3482,14 +3482,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3499,14 +3499,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3516,14 +3516,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3533,14 +3533,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3574,7 +3574,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3625,7 +3625,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3642,7 +3642,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3652,14 +3652,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3693,7 +3693,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3703,14 +3703,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3727,7 +3727,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3737,14 +3737,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3754,14 +3754,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3771,14 +3771,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3795,7 +3795,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3805,14 +3805,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3829,7 +3829,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3856,14 +3856,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3897,7 +3897,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3907,14 +3907,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3931,7 +3931,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3941,14 +3941,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3965,7 +3965,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3975,14 +3975,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3999,7 +3999,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4009,14 +4009,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4026,14 +4026,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4050,7 +4050,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4067,7 +4067,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4111,14 +4111,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4128,14 +4128,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4145,14 +4145,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4169,7 +4169,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4179,14 +4179,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4237,7 +4237,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4254,7 +4254,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4264,14 +4264,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4298,14 +4298,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4322,7 +4322,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4332,14 +4332,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4349,14 +4349,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4366,14 +4366,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4390,7 +4390,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4407,7 +4407,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4417,14 +4417,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4441,7 +4441,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4475,7 +4475,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4519,14 +4519,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4551,109 +4551,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0000062957</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-04-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-04-22</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>18.95000076293945</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3.324538124727108</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4664,270 +4569,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BIESSE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CEMBRE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CY4Gate S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DE' LONGHI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DE' LONGHI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EL.EN. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EMAK S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IRCE s.p.a</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Impianti S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>LU-VE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>LU-VE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MARR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MARR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Yakkyo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>